--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\行为实验-终点冥想\LDMH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\行为实验-终点冥想\Evolution and Human Behavior\Data and Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B601CB41-6A18-488F-A044-8AF9387978F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EFDB94-D37A-4BF0-937F-5570CEE1924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>Account_ShortTerm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account_MidTerm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,6 +191,10 @@
   </si>
   <si>
     <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account_Immediate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +571,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -626,31 +626,31 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
@@ -694,13 +694,13 @@
         <v>0.4</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2">
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="3">
         <v>7</v>
@@ -748,7 +748,7 @@
         <v>0.5</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -798,19 +798,19 @@
         <v>0.4</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4">
         <v>7</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="3">
         <v>7</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4">
         <v>8</v>
@@ -821,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>0.2</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5">
         <v>8</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="3">
         <v>6</v>
@@ -911,7 +911,7 @@
         <v>0.5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O7">
         <v>7</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="3">
         <v>7</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S7">
         <v>7</v>
@@ -984,7 +984,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1020,13 +1020,13 @@
         <v>0.8</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="3">
         <v>7</v>
@@ -1074,13 +1074,13 @@
         <v>0.4</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9">
         <v>7</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="3">
         <v>8</v>
@@ -1128,13 +1128,13 @@
         <v>0.3</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10">
         <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
         <v>6</v>
@@ -1227,7 +1227,7 @@
         <v>0.4</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O12">
         <v>9</v>
@@ -1277,19 +1277,19 @@
         <v>0.2</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O13">
         <v>7</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="3">
         <v>7</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1336,19 +1336,19 @@
         <v>0.4</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14">
         <v>7</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="3">
         <v>7</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15">
         <v>6</v>
@@ -1445,13 +1445,13 @@
         <v>0.2</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16">
         <v>7</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="3">
         <v>6</v>
@@ -1463,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
@@ -1499,13 +1499,13 @@
         <v>0.3</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O17">
         <v>8</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="3">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>0.6</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -1603,19 +1603,19 @@
         <v>0.4</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O19">
         <v>7</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="3">
         <v>6</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -1626,7 +1626,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1662,19 +1662,19 @@
         <v>0.5</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <v>8</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -1721,7 +1721,7 @@
         <v>0.4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O21">
         <v>7</v>
@@ -1735,7 +1735,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O22">
         <v>6</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="3">
         <v>5</v>
@@ -1789,7 +1789,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>0.3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23">
         <v>7</v>
@@ -1875,13 +1875,13 @@
         <v>0.4</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O24">
         <v>6</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="3">
         <v>7</v>
@@ -1929,13 +1929,13 @@
         <v>0.5</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O25">
         <v>7</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="3">
         <v>5</v>
@@ -1947,7 +1947,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -1983,7 +1983,7 @@
         <v>0.5</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O26">
         <v>7</v>
@@ -2033,19 +2033,19 @@
         <v>0.2</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O27">
         <v>8</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="3">
         <v>6</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S27">
         <v>9</v>
@@ -2056,7 +2056,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
@@ -2092,13 +2092,13 @@
         <v>0.2</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O28">
         <v>8</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="3">
         <v>8</v>
@@ -2110,7 +2110,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0.3</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O29">
         <v>7</v>
@@ -2160,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -2196,13 +2196,13 @@
         <v>0.4</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O30">
         <v>6</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="3">
         <v>7</v>
@@ -2214,7 +2214,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -2250,7 +2250,7 @@
         <v>0.2</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O31">
         <v>7</v>
@@ -2300,7 +2300,7 @@
         <v>0.2</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O32">
         <v>7</v>
@@ -2350,13 +2350,13 @@
         <v>0.4</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="3">
         <v>6</v>
@@ -2368,7 +2368,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
@@ -2404,7 +2404,7 @@
         <v>0.6</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O34">
         <v>8</v>
@@ -2454,19 +2454,19 @@
         <v>0.4</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O35">
         <v>6</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q35" s="3">
         <v>8</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S35">
         <v>7</v>
@@ -2513,19 +2513,19 @@
         <v>0.7</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O36">
         <v>4</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="3">
         <v>3</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S36">
         <v>8</v>
@@ -2572,7 +2572,7 @@
         <v>0.4</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O37">
         <v>6</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O38">
         <v>6</v>
@@ -2672,13 +2672,13 @@
         <v>0.6</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O39">
         <v>6</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q39" s="3">
         <v>4</v>
@@ -2690,7 +2690,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
@@ -2726,13 +2726,13 @@
         <v>0.4</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O40">
         <v>7</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="3">
         <v>6</v>
@@ -2780,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O41">
         <v>6</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="3">
         <v>6</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S41">
         <v>7</v>
@@ -2839,13 +2839,13 @@
         <v>0.3</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O42">
         <v>3</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="3">
         <v>4</v>
@@ -2857,7 +2857,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="3">
         <v>7</v>
@@ -2947,13 +2947,13 @@
         <v>0.4</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O44">
         <v>7</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="3">
         <v>6</v>
@@ -2965,7 +2965,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1">
         <v>2</v>
@@ -3001,7 +3001,7 @@
         <v>0.7</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O45">
         <v>8</v>
@@ -3015,7 +3015,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>0.5</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46">
         <v>8</v>
@@ -3101,7 +3101,7 @@
         <v>0.1</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O47">
         <v>7</v>
@@ -3115,7 +3115,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O48">
         <v>6</v>
@@ -3165,7 +3165,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
@@ -3246,7 +3246,7 @@
         <v>0.6</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O50">
         <v>7</v>
@@ -3260,7 +3260,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
@@ -3296,13 +3296,13 @@
         <v>0.4</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O51">
         <v>8</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q51" s="3">
         <v>9</v>
@@ -3350,7 +3350,7 @@
         <v>0.6</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O52">
         <v>7</v>
@@ -3364,7 +3364,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -3400,13 +3400,13 @@
         <v>0.7</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O53">
         <v>6</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="3">
         <v>8</v>
@@ -3418,7 +3418,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -3454,13 +3454,13 @@
         <v>0.8</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O54">
         <v>6</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="3">
         <v>5</v>
@@ -3508,7 +3508,7 @@
         <v>0.9</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O55">
         <v>9</v>
@@ -3558,13 +3558,13 @@
         <v>0.5</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q56" s="3">
         <v>4</v>
@@ -3576,7 +3576,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>0.4</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O57">
         <v>9</v>
@@ -3626,7 +3626,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
@@ -3662,13 +3662,13 @@
         <v>0.5</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O58">
         <v>6</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q58" s="3">
         <v>4</v>
@@ -3680,7 +3680,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -3716,19 +3716,19 @@
         <v>0.2</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O59">
         <v>6</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q59" s="3">
         <v>5</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S59">
         <v>7</v>
@@ -3775,7 +3775,7 @@
         <v>0.5</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O60">
         <v>8</v>
@@ -3825,19 +3825,19 @@
         <v>0.2</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61">
         <v>7</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q61" s="3">
         <v>6</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S61">
         <v>7</v>
@@ -3848,7 +3848,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
@@ -3884,13 +3884,13 @@
         <v>0.64</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O62">
         <v>6</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q62" s="3">
         <v>5</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O63">
         <v>6</v>
@@ -3952,7 +3952,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1">
         <v>2</v>
@@ -3988,13 +3988,13 @@
         <v>0.4</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O64">
         <v>7</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q64" s="3">
         <v>7</v>
@@ -4042,7 +4042,7 @@
         <v>0.4</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O65">
         <v>6</v>
@@ -4056,7 +4056,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
@@ -4092,13 +4092,13 @@
         <v>0.7</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O66">
         <v>7</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q66" s="3">
         <v>4</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -4160,7 +4160,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -4196,13 +4196,13 @@
         <v>0.8</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O68">
         <v>7</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q68" s="3">
         <v>5</v>
@@ -4214,7 +4214,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -4295,13 +4295,13 @@
         <v>0.9</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O70">
         <v>7</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q70" s="3">
         <v>7</v>
@@ -4349,19 +4349,19 @@
         <v>0.8</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O71">
         <v>7</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q71" s="3">
         <v>5</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S71">
         <v>7</v>
@@ -4408,7 +4408,7 @@
         <v>0.2</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O72">
         <v>8</v>
@@ -4422,7 +4422,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1">
         <v>2</v>
@@ -4458,13 +4458,13 @@
         <v>0.6</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O73">
         <v>7</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q73" s="3">
         <v>7</v>
@@ -4476,7 +4476,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
@@ -4512,13 +4512,13 @@
         <v>0</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O74">
         <v>8</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q74" s="3">
         <v>9</v>
@@ -4530,7 +4530,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
@@ -4566,13 +4566,13 @@
         <v>0.3</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O75">
         <v>7</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q75" s="3">
         <v>8</v>
@@ -4620,13 +4620,13 @@
         <v>0.2</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O76">
         <v>5</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q76" s="3">
         <v>3</v>
@@ -4638,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
@@ -4719,7 +4719,7 @@
         <v>0.2</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O78">
         <v>6</v>
@@ -4733,7 +4733,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -4769,13 +4769,13 @@
         <v>0.6</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O79">
         <v>8</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q79" s="3">
         <v>8</v>
@@ -4823,19 +4823,19 @@
         <v>0.4</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O80">
         <v>8</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q80" s="3">
         <v>7</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S80">
         <v>8</v>
@@ -4846,7 +4846,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" s="1">
         <v>2</v>
@@ -4882,13 +4882,13 @@
         <v>0.7</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O81">
         <v>5</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q81" s="3">
         <v>5</v>
@@ -4900,7 +4900,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="1">
         <v>2</v>
@@ -4936,13 +4936,13 @@
         <v>0.7</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O82">
         <v>7</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q82" s="3">
         <v>7</v>
@@ -4990,13 +4990,13 @@
         <v>0.5</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O83">
         <v>9</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q83" s="3">
         <v>8</v>
@@ -5008,7 +5008,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
@@ -5044,19 +5044,19 @@
         <v>0.4</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O84">
         <v>8</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q84" s="3">
         <v>8</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S84">
         <v>9</v>
@@ -5103,19 +5103,19 @@
         <v>0.6</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O85">
         <v>8</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q85" s="3">
         <v>8</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S85">
         <v>7</v>
@@ -5126,7 +5126,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C86" s="1">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>0.6</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O86">
         <v>7</v>
@@ -5212,7 +5212,7 @@
         <v>0.3</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O87">
         <v>8</v>
@@ -5262,7 +5262,7 @@
         <v>0.6</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O88">
         <v>8</v>
@@ -5357,13 +5357,13 @@
         <v>0.6</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O90">
         <v>6</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q90" s="3">
         <v>7</v>
@@ -5411,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O91">
         <v>7</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q91" s="3">
         <v>8</v>
@@ -5429,7 +5429,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C92" s="1">
         <v>2</v>
@@ -5465,13 +5465,13 @@
         <v>0.6</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O92">
         <v>5</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q92" s="3">
         <v>5</v>
@@ -5519,13 +5519,13 @@
         <v>0.6</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O93">
         <v>7</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q93" s="3">
         <v>7</v>
@@ -5537,7 +5537,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O94">
         <v>8</v>
@@ -5587,7 +5587,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -5623,13 +5623,13 @@
         <v>0.5</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O95">
         <v>6</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q95" s="3">
         <v>7</v>
@@ -5677,13 +5677,13 @@
         <v>0.4</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O96">
         <v>6</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q96" s="3">
         <v>7</v>
@@ -5695,7 +5695,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -5731,13 +5731,13 @@
         <v>0.5</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O97">
         <v>5</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q97" s="3">
         <v>6</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O98">
         <v>5</v>
@@ -5799,7 +5799,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C99" s="1">
         <v>1</v>
@@ -5835,7 +5835,7 @@
         <v>0.6</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O99">
         <v>5</v>
@@ -5885,7 +5885,7 @@
         <v>0.4</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O100">
         <v>8</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
@@ -5935,7 +5935,7 @@
         <v>0.4</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O101">
         <v>6</v>
@@ -5985,13 +5985,13 @@
         <v>0.66</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O102">
         <v>9</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q102" s="3">
         <v>6</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O103">
         <v>4</v>
@@ -6053,7 +6053,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -6089,13 +6089,13 @@
         <v>0.6</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O104">
         <v>6</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q104" s="3">
         <v>6</v>
@@ -6107,7 +6107,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" s="1">
         <v>2</v>
@@ -6143,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O105">
         <v>5</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q105" s="3">
         <v>4</v>
@@ -6161,7 +6161,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C106" s="1">
         <v>2</v>
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O106">
         <v>6</v>
@@ -6211,7 +6211,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
@@ -6247,7 +6247,7 @@
         <v>0.5</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O107">
         <v>7</v>
@@ -6261,7 +6261,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C108" s="1">
         <v>1</v>
@@ -6297,13 +6297,13 @@
         <v>0</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O108">
         <v>7</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q108" s="3">
         <v>7</v>
@@ -6315,7 +6315,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" s="1">
         <v>1</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O109">
         <v>7</v>
@@ -6365,7 +6365,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" s="1">
         <v>1</v>
@@ -6401,19 +6401,19 @@
         <v>0.2</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O110">
         <v>7</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q110" s="3">
         <v>7</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S110">
         <v>6</v>
@@ -6460,13 +6460,13 @@
         <v>0.4</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O111">
         <v>9</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q111" s="3">
         <v>8</v>
@@ -6478,7 +6478,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C112" s="1">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>0.7</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O112">
         <v>6</v>
@@ -6528,7 +6528,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C113" s="1">
         <v>2</v>
@@ -6564,7 +6564,7 @@
         <v>0.8</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O113">
         <v>5</v>
@@ -6614,13 +6614,13 @@
         <v>0.7</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O114">
         <v>6</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q114" s="3">
         <v>7</v>
@@ -6632,7 +6632,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" s="1">
         <v>2</v>
@@ -6668,13 +6668,13 @@
         <v>0.4</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O115">
         <v>4</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q115" s="3">
         <v>5</v>
@@ -6722,7 +6722,7 @@
         <v>0.6</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O116">
         <v>6</v>
@@ -6772,13 +6772,13 @@
         <v>0.4</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O117">
         <v>5</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q117" s="3">
         <v>6</v>
@@ -6790,7 +6790,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1">
         <v>2</v>
@@ -6826,13 +6826,13 @@
         <v>0.9</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O118">
         <v>5</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q118" s="3">
         <v>3</v>
@@ -6880,13 +6880,13 @@
         <v>0.2</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O119">
         <v>8</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q119" s="3">
         <v>5</v>
@@ -6898,7 +6898,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C120" s="1">
         <v>2</v>
@@ -6934,7 +6934,7 @@
         <v>0.4</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O120">
         <v>8</v>
@@ -6984,13 +6984,13 @@
         <v>0.6</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O121">
         <v>6</v>
       </c>
       <c r="P121" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q121" s="3">
         <v>5</v>
@@ -7002,7 +7002,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C122" s="1">
         <v>2</v>
@@ -7038,13 +7038,13 @@
         <v>0.76</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O122">
         <v>7</v>
       </c>
       <c r="P122" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q122" s="3">
         <v>7</v>
@@ -7092,13 +7092,13 @@
         <v>0.2</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O123">
         <v>7</v>
       </c>
       <c r="P123" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q123" s="3">
         <v>8</v>
@@ -7110,7 +7110,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C124" s="1">
         <v>2</v>
@@ -7191,13 +7191,13 @@
         <v>0.2</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O125">
         <v>8</v>
       </c>
       <c r="P125" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q125" s="3">
         <v>3</v>
@@ -7245,13 +7245,13 @@
         <v>0.5</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O126">
         <v>5</v>
       </c>
       <c r="P126" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q126" s="3">
         <v>5</v>
@@ -7263,7 +7263,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -7308,7 +7308,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C128" s="1">
         <v>2</v>
@@ -7344,13 +7344,13 @@
         <v>0.36</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O128">
         <v>5</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q128" s="3">
         <v>5</v>
@@ -7398,7 +7398,7 @@
         <v>0.84</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O129">
         <v>7</v>
@@ -7412,7 +7412,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C130" s="1">
         <v>2</v>
@@ -7448,7 +7448,7 @@
         <v>0.4</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O130">
         <v>6</v>
@@ -7498,19 +7498,19 @@
         <v>0.6</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O131">
         <v>7</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q131" s="3">
         <v>7</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S131">
         <v>8</v>
@@ -7521,7 +7521,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="1">
         <v>2</v>
@@ -7557,13 +7557,13 @@
         <v>0.8</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O132">
         <v>8</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q132" s="3">
         <v>8</v>
@@ -7611,7 +7611,7 @@
         <v>0.3</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O133">
         <v>8</v>
@@ -7661,19 +7661,19 @@
         <v>1</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O134">
         <v>7</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q134" s="3">
         <v>6</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S134">
         <v>7</v>
@@ -7720,7 +7720,7 @@
         <v>0.2</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O135">
         <v>6</v>
@@ -7734,7 +7734,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C136" s="1">
         <v>2</v>
@@ -7770,7 +7770,7 @@
         <v>0.8</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O136">
         <v>6</v>
@@ -7784,7 +7784,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
@@ -7820,13 +7820,13 @@
         <v>0.6</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O137">
         <v>7</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q137" s="3">
         <v>6</v>
@@ -7874,7 +7874,7 @@
         <v>0.7</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O138">
         <v>7</v>
@@ -7888,7 +7888,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="1">
         <v>1</v>
@@ -7924,13 +7924,13 @@
         <v>0.6</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O139">
         <v>7</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q139" s="3">
         <v>3</v>
@@ -7942,7 +7942,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" s="1">
         <v>2</v>
@@ -7978,7 +7978,7 @@
         <v>0.4</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O140">
         <v>6</v>
@@ -7992,7 +7992,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -8028,7 +8028,7 @@
         <v>0.8</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O141">
         <v>7</v>
@@ -8078,7 +8078,7 @@
         <v>0.4</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O142">
         <v>7</v>
@@ -8092,7 +8092,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
@@ -8128,13 +8128,13 @@
         <v>0.9</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O143">
         <v>4</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q143" s="3">
         <v>5</v>
@@ -8146,7 +8146,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -8182,13 +8182,13 @@
         <v>0.5</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O144">
         <v>5</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q144" s="3">
         <v>3</v>
@@ -8200,7 +8200,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
@@ -8236,13 +8236,13 @@
         <v>0.3</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O145">
         <v>6</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q145" s="3">
         <v>6</v>
@@ -8291,13 +8291,13 @@
       </c>
       <c r="N146" s="1"/>
       <c r="P146" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q146" s="3">
         <v>6</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S146">
         <v>7</v>
@@ -8308,7 +8308,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C147" s="1">
         <v>2</v>
@@ -8344,13 +8344,13 @@
         <v>0.6</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O147">
         <v>3</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q147" s="3">
         <v>4</v>
@@ -8362,7 +8362,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -8398,13 +8398,13 @@
         <v>0.6</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O148">
         <v>5</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q148" s="3">
         <v>5</v>
@@ -8416,7 +8416,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C149" s="1">
         <v>2</v>
@@ -8452,13 +8452,13 @@
         <v>0.6</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O149">
         <v>6</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q149" s="3">
         <v>4</v>
